--- a/validation_data_with_predictions.xlsx
+++ b/validation_data_with_predictions.xlsx
@@ -4387,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="BR18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4599,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="BR19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="BR31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -11383,7 +11383,7 @@
         <v>1</v>
       </c>
       <c r="BR51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -37883,7 +37883,7 @@
         <v>0</v>
       </c>
       <c r="BR176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -47423,7 +47423,7 @@
         <v>0</v>
       </c>
       <c r="BR221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -64595,7 +64595,7 @@
         <v>1</v>
       </c>
       <c r="BR302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -72015,7 +72015,7 @@
         <v>1</v>
       </c>
       <c r="BR337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -76255,7 +76255,7 @@
         <v>0</v>
       </c>
       <c r="BR357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -85371,7 +85371,7 @@
         <v>0</v>
       </c>
       <c r="BR400" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -91943,7 +91943,7 @@
         <v>0</v>
       </c>
       <c r="BR431" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -100847,7 +100847,7 @@
         <v>0</v>
       </c>
       <c r="BR473" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -102331,7 +102331,7 @@
         <v>0</v>
       </c>
       <c r="BR480" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
